--- a/config/广州离线库管理文档.xlsx
+++ b/config/广州离线库管理文档.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_jc\data_deal_machine\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6027BE6-38BA-478B-A64E-9A728748CBE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9AB97-120D-4403-8F60-5A425883E56D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805" activeTab="3" xr2:uid="{5555AC44-A947-494E-AFCF-513CA4C5DCF1}"/>
   </bookViews>
@@ -28,37 +28,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>指标版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>组别编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指标备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -7422,16 +7398,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7439,10 +7415,10 @@
         <v>43376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -7457,7 +7433,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7467,19 +7443,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7506,16 +7482,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7527,36 +7503,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3487307A-D67F-4814-9642-A263ADCAB13C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>